--- a/data/8gradescience.xlsx
+++ b/data/8gradescience.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brockrowley/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shawnirvin/Desktop/PhD Education/BRT/Conferences/2018-2019/NCME Nat'l /text-analysis-content-validity/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7933385-AEEC-7740-BCCF-FF9453F8F55A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F298BB0E-5574-E84A-AF7E-409FE714EFF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{953BC326-D01C-134D-B0DA-7714529E0B02}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="27240" windowHeight="16440" xr2:uid="{953BC326-D01C-134D-B0DA-7714529E0B02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="260">
   <si>
     <t>Code</t>
   </si>
@@ -736,12 +736,114 @@
   <si>
     <t>Develop a model to generate data for iterative testing and modification of a proposed object, tool, or process such that an optimal design can be achieved.</t>
   </si>
+  <si>
+    <t>S08PHS1.4</t>
+  </si>
+  <si>
+    <t>S08PHS1.5</t>
+  </si>
+  <si>
+    <t>S08PHS1.6</t>
+  </si>
+  <si>
+    <t>S08PHS3.3</t>
+  </si>
+  <si>
+    <t>S08PHS3.2</t>
+  </si>
+  <si>
+    <t>S08PHS3.1</t>
+  </si>
+  <si>
+    <t>S08PHS2.3</t>
+  </si>
+  <si>
+    <t>S08PHS2.4</t>
+  </si>
+  <si>
+    <t>S08PHS2.5</t>
+  </si>
+  <si>
+    <t>S08PHS3.5</t>
+  </si>
+  <si>
+    <t>S08PHS4.1</t>
+  </si>
+  <si>
+    <t>S08PHS4.3</t>
+  </si>
+  <si>
+    <t>S08LFS1.1</t>
+  </si>
+  <si>
+    <t>S08LFS1.2</t>
+  </si>
+  <si>
+    <t>S08LFS1.5</t>
+  </si>
+  <si>
+    <t>S08LFS1.8</t>
+  </si>
+  <si>
+    <t>S08LFS3.1</t>
+  </si>
+  <si>
+    <t>S08LFS2.3</t>
+  </si>
+  <si>
+    <t>S08LFS2.4</t>
+  </si>
+  <si>
+    <t>S08LFS2.5</t>
+  </si>
+  <si>
+    <t>S08LFS4.1</t>
+  </si>
+  <si>
+    <t>S08LFS4.3</t>
+  </si>
+  <si>
+    <t>S08ESS1.1</t>
+  </si>
+  <si>
+    <t>S08LFS4.5</t>
+  </si>
+  <si>
+    <t>S08LFS4.6</t>
+  </si>
+  <si>
+    <t>S08ESS1.4</t>
+  </si>
+  <si>
+    <t>S08ESS2.1</t>
+  </si>
+  <si>
+    <t>S08ESS2.3</t>
+  </si>
+  <si>
+    <t>S08ESS2.6</t>
+  </si>
+  <si>
+    <t>S08ESS3.1</t>
+  </si>
+  <si>
+    <t>S08ESS3.2</t>
+  </si>
+  <si>
+    <t>S08ESS3.5</t>
+  </si>
+  <si>
+    <t>S08ETS1.3</t>
+  </si>
+  <si>
+    <t>S08ETS1.4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -791,6 +893,13 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -866,7 +975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -907,12 +1016,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -921,6 +1024,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1238,11 +1350,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AB1D0A-5092-9A40-8E96-DFEE29550B36}">
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="3" width="15.6640625" style="9" customWidth="1"/>
     <col min="4" max="5" width="38.83203125" style="9" customWidth="1"/>
@@ -1255,7 +1367,7 @@
     <col min="16" max="16384" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1286,7 +1398,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:15" ht="272" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="272">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1307,7 +1419,7 @@
       <c r="H2" s="8"/>
       <c r="O2" s="10"/>
     </row>
-    <row r="3" spans="1:15" ht="220" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="220" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -1334,7 +1446,7 @@
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="141" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
@@ -1361,8 +1473,10 @@
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="176" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:15" ht="187">
+      <c r="A5" s="5" t="s">
+        <v>226</v>
+      </c>
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
@@ -1376,13 +1490,15 @@
         <v>26</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="1:15" ht="112" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:15" ht="119">
+      <c r="A6" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
@@ -1399,8 +1515,10 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:15" ht="176" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:15" ht="187">
+      <c r="A7" s="5" t="s">
+        <v>228</v>
+      </c>
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
@@ -1417,7 +1535,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="119">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -1444,7 +1562,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="204">
       <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
@@ -1466,13 +1584,15 @@
       <c r="G9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="14" t="s">
         <v>43</v>
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="208" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:15" ht="221">
+      <c r="A10" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
@@ -1489,8 +1609,10 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:15" ht="144" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:15" ht="153">
+      <c r="A11" s="5" t="s">
+        <v>233</v>
+      </c>
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1504,13 +1626,15 @@
         <v>47</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="1:15" ht="160" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:15" ht="170">
+      <c r="A12" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
@@ -1527,12 +1651,14 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:15" ht="112" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+    <row r="13" spans="1:15" ht="119">
+      <c r="A13" s="15" t="s">
+        <v>231</v>
+      </c>
       <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -1545,12 +1671,14 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:15" ht="256" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
+    <row r="14" spans="1:15" ht="272">
+      <c r="A14" s="15" t="s">
+        <v>230</v>
+      </c>
       <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -1563,12 +1691,14 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:15" ht="96" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
+    <row r="15" spans="1:15" ht="102">
+      <c r="A15" s="15" t="s">
+        <v>229</v>
+      </c>
       <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -1578,19 +1708,19 @@
         <v>57</v>
       </c>
       <c r="F15" s="7"/>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:15" ht="178" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:15" ht="178" customHeight="1">
+      <c r="A16" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D16" s="11" t="s">
@@ -1609,14 +1739,16 @@
         <v>62</v>
       </c>
       <c r="K16" s="4"/>
-      <c r="L16" s="18"/>
-    </row>
-    <row r="17" spans="1:12" ht="128" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
+      <c r="L16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" ht="136">
+      <c r="A17" s="15" t="s">
+        <v>235</v>
+      </c>
       <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D17" s="11" t="s">
@@ -1629,8 +1761,10 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:12" ht="96" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:12" ht="102">
+      <c r="A18" s="5" t="s">
+        <v>236</v>
+      </c>
       <c r="B18" s="6" t="s">
         <v>9</v>
       </c>
@@ -1644,12 +1778,12 @@
         <v>67</v>
       </c>
       <c r="F18" s="7"/>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="1:12" ht="112" x14ac:dyDescent="0.2">
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:12" ht="119">
       <c r="A19" s="5" t="s">
         <v>69</v>
       </c>
@@ -1676,8 +1810,10 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="176" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
+    <row r="20" spans="1:12" ht="187">
+      <c r="A20" s="5" t="s">
+        <v>237</v>
+      </c>
       <c r="B20" s="6" t="s">
         <v>9</v>
       </c>
@@ -1694,8 +1830,10 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:12" ht="96" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
+    <row r="21" spans="1:12" ht="102">
+      <c r="A21" s="15" t="s">
+        <v>238</v>
+      </c>
       <c r="B21" s="6" t="s">
         <v>9</v>
       </c>
@@ -1712,8 +1850,10 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:12" ht="208" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
+    <row r="22" spans="1:12" ht="221">
+      <c r="A22" s="15" t="s">
+        <v>239</v>
+      </c>
       <c r="B22" s="6" t="s">
         <v>9</v>
       </c>
@@ -1730,8 +1870,8 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:12" ht="192" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
+    <row r="23" spans="1:12" ht="204">
+      <c r="A23" s="15" t="s">
         <v>81</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -1757,8 +1897,8 @@
       </c>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:12" ht="256" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:12" ht="272">
+      <c r="A24" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -1784,8 +1924,10 @@
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="240" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
+    <row r="25" spans="1:12" ht="255">
+      <c r="A25" s="15" t="s">
+        <v>240</v>
+      </c>
       <c r="B25" s="6" t="s">
         <v>9</v>
       </c>
@@ -1799,13 +1941,13 @@
         <v>93</v>
       </c>
       <c r="F25" s="7"/>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="1:12" ht="305" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:12" ht="305" customHeight="1">
+      <c r="A26" s="15" t="s">
         <v>95</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -1831,8 +1973,8 @@
       </c>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="176" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
+    <row r="27" spans="1:12" ht="187">
+      <c r="A27" s="15" t="s">
         <v>100</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -1857,8 +1999,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="80" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
+    <row r="28" spans="1:12" ht="85">
+      <c r="A28" s="15" t="s">
+        <v>241</v>
+      </c>
       <c r="B28" s="6" t="s">
         <v>9</v>
       </c>
@@ -1875,8 +2019,8 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:12" ht="176" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
+    <row r="29" spans="1:12" ht="187">
+      <c r="A29" s="15" t="s">
         <v>107</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -1901,10 +2045,10 @@
         <v>113</v>
       </c>
       <c r="J29" s="4"/>
-      <c r="K29" s="18"/>
-    </row>
-    <row r="30" spans="1:12" ht="160" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="1:12" ht="170">
+      <c r="A30" s="15" t="s">
         <v>114</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -1930,8 +2074,10 @@
       </c>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:12" ht="128" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
+    <row r="31" spans="1:12" ht="136">
+      <c r="A31" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="B31" s="6" t="s">
         <v>9</v>
       </c>
@@ -1948,8 +2094,10 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:12" ht="96" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
+    <row r="32" spans="1:12" ht="102">
+      <c r="A32" s="15" t="s">
+        <v>244</v>
+      </c>
       <c r="B32" s="6" t="s">
         <v>9</v>
       </c>
@@ -1963,13 +2111,15 @@
         <v>122</v>
       </c>
       <c r="F32" s="7"/>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="H32" s="15"/>
-    </row>
-    <row r="33" spans="1:13" ht="112" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:13" ht="119">
+      <c r="A33" s="15" t="s">
+        <v>245</v>
+      </c>
       <c r="B33" s="6" t="s">
         <v>9</v>
       </c>
@@ -1986,8 +2136,10 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:13" ht="128" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
+    <row r="34" spans="1:13" ht="136">
+      <c r="A34" s="15" t="s">
+        <v>242</v>
+      </c>
       <c r="B34" s="6" t="s">
         <v>9</v>
       </c>
@@ -2004,8 +2156,8 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:13" ht="186" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="17" t="s">
+    <row r="35" spans="1:13" ht="186" customHeight="1">
+      <c r="A35" s="15" t="s">
         <v>128</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -2031,8 +2183,10 @@
       </c>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:13" ht="128" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
+    <row r="36" spans="1:13" ht="136">
+      <c r="A36" s="15" t="s">
+        <v>246</v>
+      </c>
       <c r="B36" s="6" t="s">
         <v>9</v>
       </c>
@@ -2046,13 +2200,13 @@
         <v>135</v>
       </c>
       <c r="F36" s="7"/>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="H36" s="15"/>
-    </row>
-    <row r="37" spans="1:13" ht="176" x14ac:dyDescent="0.2">
-      <c r="A37" s="17" t="s">
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" spans="1:13" ht="187">
+      <c r="A37" s="15" t="s">
         <v>137</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -2078,8 +2232,10 @@
       </c>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:13" ht="128" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
+    <row r="38" spans="1:13" ht="136">
+      <c r="A38" s="15" t="s">
+        <v>247</v>
+      </c>
       <c r="B38" s="6" t="s">
         <v>9</v>
       </c>
@@ -2096,8 +2252,8 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:13" ht="240" x14ac:dyDescent="0.2">
-      <c r="A39" s="17" t="s">
+    <row r="39" spans="1:13" ht="255">
+      <c r="A39" s="15" t="s">
         <v>145</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -2123,8 +2279,10 @@
       </c>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="1:13" ht="144" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
+    <row r="40" spans="1:13" ht="153">
+      <c r="A40" s="15" t="s">
+        <v>249</v>
+      </c>
       <c r="B40" s="6" t="s">
         <v>9</v>
       </c>
@@ -2141,8 +2299,10 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:13" ht="112" x14ac:dyDescent="0.2">
-      <c r="A41" s="17"/>
+    <row r="41" spans="1:13" ht="119">
+      <c r="A41" s="19" t="s">
+        <v>250</v>
+      </c>
       <c r="B41" s="6" t="s">
         <v>9</v>
       </c>
@@ -2159,8 +2319,10 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
+    <row r="42" spans="1:13" ht="68">
+      <c r="A42" s="11" t="s">
+        <v>248</v>
+      </c>
       <c r="B42" s="6" t="s">
         <v>9</v>
       </c>
@@ -2177,7 +2339,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:13" ht="224" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="238">
       <c r="A43" s="11" t="s">
         <v>158</v>
       </c>
@@ -2204,7 +2366,7 @@
       </c>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:13" ht="240" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="255">
       <c r="A44" s="11" t="s">
         <v>164</v>
       </c>
@@ -2230,10 +2392,12 @@
         <v>168</v>
       </c>
       <c r="J44" s="4"/>
-      <c r="M44" s="18"/>
-    </row>
-    <row r="45" spans="1:13" ht="256" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
+      <c r="M44" s="16"/>
+    </row>
+    <row r="45" spans="1:13" ht="272">
+      <c r="A45" s="11" t="s">
+        <v>251</v>
+      </c>
       <c r="B45" s="6" t="s">
         <v>9</v>
       </c>
@@ -2250,12 +2414,14 @@
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="1:13" ht="128" x14ac:dyDescent="0.2">
-      <c r="A46" s="17"/>
+    <row r="46" spans="1:13" ht="136">
+      <c r="A46" s="15" t="s">
+        <v>252</v>
+      </c>
       <c r="B46" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="15" t="s">
         <v>171</v>
       </c>
       <c r="D46" s="11" t="s">
@@ -2268,14 +2434,14 @@
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="1:13" ht="256" x14ac:dyDescent="0.2">
-      <c r="A47" s="17" t="s">
+    <row r="47" spans="1:13" ht="272">
+      <c r="A47" s="15" t="s">
         <v>174</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="15" t="s">
         <v>171</v>
       </c>
       <c r="D47" s="11" t="s">
@@ -2295,12 +2461,14 @@
       </c>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="1:13" ht="144" x14ac:dyDescent="0.2">
-      <c r="A48" s="17"/>
+    <row r="48" spans="1:13" ht="153">
+      <c r="A48" s="19" t="s">
+        <v>253</v>
+      </c>
       <c r="B48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="15" t="s">
         <v>171</v>
       </c>
       <c r="D48" s="11" t="s">
@@ -2313,14 +2481,14 @@
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="1:12" ht="128" x14ac:dyDescent="0.2">
-      <c r="A49" s="17" t="s">
+    <row r="49" spans="1:12" ht="136">
+      <c r="A49" s="15" t="s">
         <v>182</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="15" t="s">
         <v>171</v>
       </c>
       <c r="D49" s="11" t="s">
@@ -2340,14 +2508,14 @@
       </c>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" ht="288" x14ac:dyDescent="0.2">
-      <c r="A50" s="17" t="s">
+    <row r="50" spans="1:12" ht="306">
+      <c r="A50" s="15" t="s">
         <v>188</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="15" t="s">
         <v>171</v>
       </c>
       <c r="D50" s="11" t="s">
@@ -2367,12 +2535,14 @@
       </c>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="224" x14ac:dyDescent="0.2">
-      <c r="A51" s="17"/>
+    <row r="51" spans="1:12" ht="238">
+      <c r="A51" s="15" t="s">
+        <v>254</v>
+      </c>
       <c r="B51" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="15" t="s">
         <v>171</v>
       </c>
       <c r="D51" s="11" t="s">
@@ -2385,8 +2555,10 @@
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" spans="1:12" ht="224" x14ac:dyDescent="0.2">
-      <c r="A52" s="17"/>
+    <row r="52" spans="1:12" ht="238">
+      <c r="A52" s="15" t="s">
+        <v>255</v>
+      </c>
       <c r="B52" s="6" t="s">
         <v>9</v>
       </c>
@@ -2403,8 +2575,10 @@
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="1:12" ht="320" x14ac:dyDescent="0.2">
-      <c r="A53" s="17"/>
+    <row r="53" spans="1:12" ht="340">
+      <c r="A53" s="15" t="s">
+        <v>256</v>
+      </c>
       <c r="B53" s="6" t="s">
         <v>9</v>
       </c>
@@ -2421,8 +2595,8 @@
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" spans="1:12" ht="336" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
+    <row r="54" spans="1:12" ht="356">
+      <c r="A54" s="15" t="s">
         <v>201</v>
       </c>
       <c r="B54" s="6" t="s">
@@ -2448,8 +2622,8 @@
       </c>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:12" ht="224" x14ac:dyDescent="0.2">
-      <c r="A55" s="17" t="s">
+    <row r="55" spans="1:12" ht="238">
+      <c r="A55" s="15" t="s">
         <v>206</v>
       </c>
       <c r="B55" s="6" t="s">
@@ -2475,8 +2649,10 @@
       </c>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="208" x14ac:dyDescent="0.2">
-      <c r="A56" s="17"/>
+    <row r="56" spans="1:12" ht="221">
+      <c r="A56" s="15" t="s">
+        <v>257</v>
+      </c>
       <c r="B56" s="6" t="s">
         <v>9</v>
       </c>
@@ -2493,8 +2669,8 @@
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
     </row>
-    <row r="57" spans="1:12" ht="308" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="17" t="s">
+    <row r="57" spans="1:12" ht="308" customHeight="1">
+      <c r="A57" s="15" t="s">
         <v>213</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -2518,8 +2694,8 @@
       </c>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="1:12" ht="352" x14ac:dyDescent="0.2">
-      <c r="A58" s="17" t="s">
+    <row r="58" spans="1:12" ht="372">
+      <c r="A58" s="15" t="s">
         <v>219</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -2541,12 +2717,14 @@
       <c r="H58" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="J58" s="18"/>
+      <c r="J58" s="16"/>
       <c r="K58" s="4"/>
-      <c r="L58" s="18"/>
-    </row>
-    <row r="59" spans="1:12" ht="96" x14ac:dyDescent="0.2">
-      <c r="A59" s="17"/>
+      <c r="L58" s="16"/>
+    </row>
+    <row r="59" spans="1:12" ht="102">
+      <c r="A59" s="15" t="s">
+        <v>258</v>
+      </c>
       <c r="B59" s="6" t="s">
         <v>9</v>
       </c>
@@ -2561,8 +2739,10 @@
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
     </row>
-    <row r="60" spans="1:12" ht="64" x14ac:dyDescent="0.2">
-      <c r="A60" s="17"/>
+    <row r="60" spans="1:12" ht="68">
+      <c r="A60" s="15" t="s">
+        <v>259</v>
+      </c>
       <c r="B60" s="6" t="s">
         <v>9</v>
       </c>
